--- a/DHK.Blazor.Server/wwwroot/templates/StudentTemplate.xlsx
+++ b/DHK.Blazor.Server/wwwroot/templates/StudentTemplate.xlsx
@@ -41,28 +41,28 @@
     <t>Program</t>
   </si>
   <si>
+    <t>Birthday</t>
+  </si>
+  <si>
     <t>YearLevel</t>
   </si>
   <si>
-    <t>Birthday</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>Sample</t>
   </si>
   <si>
-    <t>Teacher</t>
-  </si>
-  <si>
-    <t>sample.teacher</t>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>sample.student</t>
   </si>
   <si>
     <t>3310000000</t>
   </si>
   <si>
-    <t>sample.teacher@gmail.com</t>
+    <t>sample.student@gmail.com</t>
   </si>
   <si>
     <t>Male</t>
@@ -74,10 +74,10 @@
     <t>BSCS</t>
   </si>
   <si>
+    <t>03/18/2005</t>
+  </si>
+  <si>
     <t>FIRST</t>
-  </si>
-  <si>
-    <t>03/18/2005</t>
   </si>
 </sst>
 </file>
